--- a/biology/Médecine/Henri_Lôo/Henri_Lôo.xlsx
+++ b/biology/Médecine/Henri_Lôo/Henri_Lôo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_L%C3%B4o</t>
+          <t>Henri_Lôo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Lôo, né le 5 mai 1938 à Nevers[1], est un psychiatre français, professeur des universités-praticien hospitalier honoraire[2] au centre hospitalier Sainte-Anne à Paris de 1985 à 2003[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Lôo, né le 5 mai 1938 à Nevers, est un psychiatre français, professeur des universités-praticien hospitalier honoraire au centre hospitalier Sainte-Anne à Paris de 1985 à 2003.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_L%C3%B4o</t>
+          <t>Henri_Lôo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient son diplôme de médecin à la faculté de médecine de Paris en 1970 et se spécialise en neuropsychiatrie[2]. Il est chef de clinique à l'hôpital Cochin, puis obtient l'agrégation de médecine en 1976[2]. Il est PU-PH à l'université Paris-Descartes jusqu'à sa retraite en 2007[2].
-Il est rédacteur en chef de la revue médicale L'Encéphale (Paris)[Quand ?]. Il a été coprésident avec Jean-Pierre Olié du comité scientifique du 11e Congrès de L'Encéphale (2013)[3].
-Il est membre  titulaire de l'Académie nationale de médecine depuis 2005[4].
-Il est le président de l'Association des amis de Pierre Deniker pour l'enseignement de la psychiatrie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son diplôme de médecin à la faculté de médecine de Paris en 1970 et se spécialise en neuropsychiatrie. Il est chef de clinique à l'hôpital Cochin, puis obtient l'agrégation de médecine en 1976. Il est PU-PH à l'université Paris-Descartes jusqu'à sa retraite en 2007.
+Il est rédacteur en chef de la revue médicale L'Encéphale (Paris)[Quand ?]. Il a été coprésident avec Jean-Pierre Olié du comité scientifique du 11e Congrès de L'Encéphale (2013).
+Il est membre  titulaire de l'Académie nationale de médecine depuis 2005.
+Il est le président de l'Association des amis de Pierre Deniker pour l'enseignement de la psychiatrie.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_L%C3%B4o</t>
+          <t>Henri_Lôo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur[2].
- Officier de l'ordre national du Mérite[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur.
+ Officier de l'ordre national du Mérite.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Henri_L%C3%B4o</t>
+          <t>Henri_Lôo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Avec Pierre Lôo, le stress permanent, Masson, 1995, 115 p. (ISBN 2-225-80702-7)
 Avec Thierry Gallarda, La maladie dépressive, Flammarion, coll. « Dominos », 1997, 127 p. (ISBN 978-2-08-035491-4).
